--- a/saucedemo.xlsx
+++ b/saucedemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lczub\Desktop\Testing\Scenariusze testowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57684BA0-2CF4-4560-AB9B-7B7B6BE61D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE92862-CF0D-437D-8CDC-67D4DDA69DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE235800-FC55-4637-87B0-826D0E5CCD37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
   <si>
     <t>Scenariusz testowy</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Logowanie użytkownika do systemu</t>
   </si>
   <si>
-    <t>Sprawdzenie poproawności działania formularza logowania do aplikacji webowej</t>
-  </si>
-  <si>
-    <t>1. Sprawdzić czy, użytkownik, na którego będziemy się logować jest utworzony. 2. Sprawdzić czy testowana jest prawidłowa wersja aplikacji</t>
-  </si>
-  <si>
     <t>Przypadki testowe</t>
   </si>
   <si>
@@ -190,16 +184,83 @@
   </si>
   <si>
     <t>Usunąć konto użytkownika przeznaczone do testowania.</t>
+  </si>
+  <si>
+    <t>Sprawdzenie poprawności działania formularza logowania do aplikacji webowej</t>
+  </si>
+  <si>
+    <t>Logowanie przy użyciu nieprawdłowego hasła</t>
+  </si>
+  <si>
+    <t>System powinien uniemożliwić logowanie do aplikacji przy użyciu nieprawidłowego hasła</t>
+  </si>
+  <si>
+    <t>Wprowadzenie nieprawidłowego hasła - secret_sauce123</t>
+  </si>
+  <si>
+    <t>Użytkownik otrzymuje informację, że podany login lub hasło są nieprawidłowe.</t>
+  </si>
+  <si>
+    <t>Użytkownikowi nie udało zalogować się do sklepu, ale pojawił się nieprawidłowy komunikat mówiący o zarówno nieprawidłowym loginie jak i haśle.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Informacja może być myląca dla użytkownika, sugerująca, że login, który wprowadził prawidłowo jest błędny.</t>
+  </si>
+  <si>
+    <t>1. Sprawdzić czy, użytkownik, na którego będziemy się logować jest utworzony. 
+2. Sprawdzić czy testowana jest prawidłowa wersja aplikacji</t>
+  </si>
+  <si>
+    <t>Logowanie bez wprowadzenia loginu i hasła</t>
+  </si>
+  <si>
+    <t>System powinien uniemożliwić logowanie do aplikacji bez podania loginu i hasła.</t>
+  </si>
+  <si>
+    <t>Użytkownik nie zostaje zalogowany do sklepu oraz otrzymuje informację, że wymagane jest wprowadzenie loginu i hasła.</t>
+  </si>
+  <si>
+    <t>Użytkownikowi nie udało zalogować się do sklepu, ale pojawił się nieprawidłowy komunikat mówiący o niewprowadzeniu jedynie hasła.</t>
+  </si>
+  <si>
+    <t>Informacja może być myląca dla użytkownika, sugerująca, że do zalogowania wymagany jest jedynie login.</t>
+  </si>
+  <si>
+    <t>Logowanie poprzez zablokowane konto</t>
+  </si>
+  <si>
+    <t>System powinien uniemożliwić logowanie do aplikacji przez zablokowanego użytkownika.</t>
+  </si>
+  <si>
+    <t>Wprowadzenie prawidłowej nazwy zablokowanego użytkownika - locked_out_user</t>
+  </si>
+  <si>
+    <t>Użytkownik nie zostaje zalogowany do sklepu oraz otrzymuje informację, że użytkownik ma zablokowane konto.</t>
+  </si>
+  <si>
+    <t>Użytkownikowi nie udało zalogować się do sklepu, pojawił się komunikat, że konto użytkownika jest zablokowane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -214,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -222,20 +283,510 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Nagłówek 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -246,6 +797,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61B2F902-9D01-4955-A249-D5FE9FE420F0}" name="Tabela2" displayName="Tabela2" ref="B4:F5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+  <autoFilter ref="B4:F5" xr:uid="{61B2F902-9D01-4955-A249-D5FE9FE420F0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8360EF3A-E481-413F-A46A-F0664BBD6C6D}" name="Id" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{217908B8-A900-405F-A670-42C0B305E82B}" name="Nazwa" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{1C808E93-F9D1-43C4-BEEF-A8B82192995D}" name="Opis" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3B45DE86-AC8B-4D53-BC51-D1078A5487FC}" name="Czynności przygotowawcze" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{4E784F2C-A49B-464A-B40C-5D6785993778}" name="Czynności końcowe" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00310BB1-02FF-4B76-8AEE-A2A9A1C35ADF}" name="Tabela3" displayName="Tabela3" ref="B19:K46" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="B19:K46" xr:uid="{00310BB1-02FF-4B76-8AEE-A2A9A1C35ADF}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{0978C54B-466E-4553-A8FE-C6D3148E4C62}" name="Id scenariusza" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9ECBF661-A37E-4F17-920F-204264FA0705}" name="Id przypadku testowego" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{4C49654A-0A1D-4B98-9EA2-A0F3D5A4276D}" name="Przypadek testowy" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{08A7D297-0B2D-49C0-B535-2E5FFCD9C0D9}" name="Opis przypadku" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{7587F406-DE18-46B8-BBCC-9E74F2BAF3A9}" name="Krok testu" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{5EB5BF89-BA57-426D-A6C9-EDB1C51A7D10}" name="Opis kroku" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{B3260FC0-18A2-4C8C-AF9B-73577DE6B511}" name="Oczekiwany rezultat" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{963B177F-9450-476D-AFB5-B35B23724E5E}" name="Aktualny rezultat" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{1B73F675-3777-419A-AF4A-C7BFDD6672A5}" name="Status" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{F16849F0-E650-4316-818F-67E90D244399}" name="Komentarz" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,365 +1129,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F584264-990E-4BD2-B59C-94F792AF4EDB}">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B3:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="3" spans="2:6" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="5" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C36" s="11">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C39" s="11">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="G42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="2:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="H43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="2:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="J44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="G45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="J45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="4:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="G46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="H46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>